--- a/data/trans_media/dukeAFECT-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,73; 78,17</t>
+          <t>72,47; 78,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,61; 85,2</t>
+          <t>80,75; 85,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,02; 91,39</t>
+          <t>87,88; 91,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,1; 73,21</t>
+          <t>67,22; 73,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,53; 83,07</t>
+          <t>78,47; 83,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,61; 90,12</t>
+          <t>87,6; 90,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,55; 75,03</t>
+          <t>70,66; 74,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,47; 83,64</t>
+          <t>80,31; 83,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,21; 90,42</t>
+          <t>88,34; 90,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,88; 84,62</t>
+          <t>81,0; 84,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 88,65</t>
+          <t>85,3; 88,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,48; 80,25</t>
+          <t>77,52; 80,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,34; 89,3</t>
+          <t>86,21; 89,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,06; 80,13</t>
+          <t>76,0; 80,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,89; 88,14</t>
+          <t>84,89; 87,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,78; 79,57</t>
+          <t>76,93; 79,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,48; 88,89</t>
+          <t>86,46; 88,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,98; 81,83</t>
+          <t>78,83; 81,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,67; 87,99</t>
+          <t>85,6; 87,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>77,63; 79,63</t>
+          <t>77,65; 79,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>86,79; 88,67</t>
+          <t>86,84; 88,75</t>
         </is>
       </c>
     </row>
@@ -1004,52 +1004,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,84; 91,41</t>
+          <t>88,16; 91,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,57; 90,77</t>
+          <t>87,9; 91,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,77; 84,74</t>
+          <t>81,94; 85,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,75; 90,62</t>
+          <t>86,48; 90,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,8; 92,14</t>
+          <t>88,76; 92,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,68; 88,27</t>
+          <t>84,81; 88,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,12; 83,74</t>
+          <t>80,26; 83,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,76; 88,89</t>
+          <t>85,69; 88,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,02; 91,33</t>
+          <t>88,93; 91,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,78; 89,14</t>
+          <t>86,87; 89,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>86,83; 89,23</t>
+          <t>86,86; 89,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,8; 87,27</t>
+          <t>83,8; 87,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,06; 88,57</t>
+          <t>85,98; 88,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,23; 92,67</t>
+          <t>89,15; 92,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 93,72</t>
+          <t>89,57; 93,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,24; 85,16</t>
+          <t>81,53; 85,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,86; 85,01</t>
+          <t>82,19; 85,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,42; 91,42</t>
+          <t>87,48; 91,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,24; 93,37</t>
+          <t>90,25; 93,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 85,75</t>
+          <t>83,17; 85,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,47; 86,51</t>
+          <t>84,38; 86,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88,93; 91,69</t>
+          <t>89,02; 91,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,58; 93,14</t>
+          <t>90,48; 93,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,77; 82,7</t>
+          <t>77,11; 82,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,54; 89,82</t>
+          <t>85,16; 89,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,86; 84,35</t>
+          <t>79,92; 84,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,91; 77,02</t>
+          <t>72,75; 76,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,02; 80,53</t>
+          <t>75,3; 80,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,01; 85,56</t>
+          <t>81,04; 85,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,21; 85,98</t>
+          <t>82,31; 85,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,05; 78,02</t>
+          <t>75,1; 78,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,03; 81,01</t>
+          <t>77,12; 80,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,86; 87,0</t>
+          <t>83,79; 87,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,69; 84,63</t>
+          <t>81,8; 84,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>74,64; 77,17</t>
+          <t>74,36; 76,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,58; 89,0</t>
+          <t>85,56; 89,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,45; 90,06</t>
+          <t>86,44; 90,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,43; 84,52</t>
+          <t>80,21; 84,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,97; 90,02</t>
+          <t>86,0; 89,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,12; 86,76</t>
+          <t>82,24; 86,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,17; 88,05</t>
+          <t>84,2; 88,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,59; 82,33</t>
+          <t>77,53; 82,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>86,6; 89,97</t>
+          <t>86,72; 90,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,53; 87,4</t>
+          <t>84,6; 87,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>85,93; 88,5</t>
+          <t>85,89; 88,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,68; 82,81</t>
+          <t>79,69; 82,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>86,83; 89,54</t>
+          <t>86,93; 89,58</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,69; 91,24</t>
+          <t>88,6; 91,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,91; 89,56</t>
+          <t>86,98; 89,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,85; 81,47</t>
+          <t>78,67; 81,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,02; 88,79</t>
+          <t>86,11; 88,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,0; 90,92</t>
+          <t>88,14; 90,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,1; 88,42</t>
+          <t>86,06; 88,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,95; 80,59</t>
+          <t>77,73; 80,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>78,8; 87,01</t>
+          <t>78,15; 87,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,87; 90,72</t>
+          <t>88,8; 90,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,83; 88,61</t>
+          <t>86,93; 88,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>78,66; 80,63</t>
+          <t>78,58; 80,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,46; 87,3</t>
+          <t>81,39; 87,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,03; 83,54</t>
+          <t>81,14; 83,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,46; 81,64</t>
+          <t>79,49; 81,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,08; 83,23</t>
+          <t>80,97; 83,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>74,05; 80,76</t>
+          <t>74,11; 81,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>78,44; 80,85</t>
+          <t>78,41; 80,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,26; 82,34</t>
+          <t>80,25; 82,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,6; 81,81</t>
+          <t>79,65; 81,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>71,21; 73,98</t>
+          <t>71,28; 73,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,0; 81,81</t>
+          <t>80,08; 81,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>80,15; 81,74</t>
+          <t>80,06; 81,66</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>80,68; 82,24</t>
+          <t>80,62; 82,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>73,17; 76,88</t>
+          <t>73,14; 77,32</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>84,05; 85,29</t>
+          <t>84,0; 85,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,72; 86,82</t>
+          <t>85,73; 86,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,94; 83,06</t>
+          <t>81,98; 83,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>84,06; 85,72</t>
+          <t>83,96; 85,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>81,65; 83,08</t>
+          <t>81,7; 83,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>84,1; 85,23</t>
+          <t>84,08; 85,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,99</t>
+          <t>80,79; 81,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>81,65; 84,07</t>
+          <t>81,9; 84,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>83,01; 83,98</t>
+          <t>83,04; 84,02</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>85,09; 85,87</t>
+          <t>85,05; 85,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,32</t>
+          <t>81,5; 82,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>83,26; 84,59</t>
+          <t>83,18; 84,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeAFECT-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,47; 78,04</t>
+          <t>72,62; 78,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,75; 85,16</t>
+          <t>80,65; 85,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,22; 73,16</t>
+          <t>67,13; 73,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,47; 83,32</t>
+          <t>78,47; 83,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,66; 74,96</t>
+          <t>70,69; 74,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,31; 83,45</t>
+          <t>80,32; 83,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,0; 84,72</t>
+          <t>80,63; 84,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,3; 88,55</t>
+          <t>85,46; 88,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,52; 80,42</t>
+          <t>77,45; 80,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,0; 80,28</t>
+          <t>75,83; 80,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,89; 87,91</t>
+          <t>84,69; 88,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,93; 79,56</t>
+          <t>76,86; 79,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,83; 81,82</t>
+          <t>78,86; 81,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,6; 87,9</t>
+          <t>85,63; 87,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>77,65; 79,63</t>
+          <t>77,65; 79,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,16; 91,65</t>
+          <t>88,0; 91,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,9; 91,0</t>
+          <t>87,84; 90,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,94; 85,23</t>
+          <t>81,79; 84,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,76; 92,09</t>
+          <t>88,8; 92,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,81; 88,19</t>
+          <t>84,89; 88,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,26; 83,7</t>
+          <t>80,31; 83,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,93; 91,31</t>
+          <t>88,95; 91,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86,87; 89,17</t>
+          <t>86,63; 89,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,52; 83,86</t>
+          <t>81,47; 83,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,8; 87,21</t>
+          <t>83,64; 87,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,98; 88,59</t>
+          <t>85,96; 88,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,15; 92,69</t>
+          <t>89,08; 92,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,53; 85,44</t>
+          <t>81,27; 85,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,19; 85,21</t>
+          <t>81,95; 85,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,48; 91,47</t>
+          <t>87,37; 91,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,17; 85,78</t>
+          <t>83,26; 85,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,38; 86,47</t>
+          <t>84,47; 86,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,02; 91,72</t>
+          <t>88,99; 91,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,11; 82,84</t>
+          <t>77,18; 83,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,16; 89,66</t>
+          <t>85,38; 89,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,92; 84,58</t>
+          <t>79,76; 84,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>75,3; 80,5</t>
+          <t>75,26; 80,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,04; 85,58</t>
+          <t>81,08; 85,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,31; 85,96</t>
+          <t>82,0; 85,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>77,12; 80,96</t>
+          <t>77,05; 81,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,79; 87,03</t>
+          <t>83,71; 86,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,8; 84,65</t>
+          <t>81,61; 84,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,56; 89,03</t>
+          <t>85,66; 89,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,44; 90,01</t>
+          <t>86,56; 90,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,21; 84,56</t>
+          <t>80,23; 84,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>82,24; 86,9</t>
+          <t>81,98; 86,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,2; 88,1</t>
+          <t>84,09; 87,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,53; 82,3</t>
+          <t>77,35; 82,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,6; 87,49</t>
+          <t>84,67; 87,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>85,89; 88,5</t>
+          <t>86,0; 88,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,69; 82,77</t>
+          <t>79,51; 82,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,6; 91,16</t>
+          <t>88,56; 91,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,98; 89,5</t>
+          <t>87,01; 89,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,67; 81,39</t>
+          <t>78,85; 81,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,14; 90,93</t>
+          <t>87,85; 90,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,06; 88,51</t>
+          <t>86,09; 88,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,73; 80,64</t>
+          <t>77,85; 80,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>88,8; 90,72</t>
+          <t>88,76; 90,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>86,93; 88,64</t>
+          <t>86,79; 88,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>78,58; 80,59</t>
+          <t>78,72; 80,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>81,14; 83,64</t>
+          <t>81,13; 83,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,49; 81,68</t>
+          <t>79,49; 81,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>80,97; 83,12</t>
+          <t>80,91; 83,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>78,41; 80,77</t>
+          <t>78,45; 80,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,25; 82,34</t>
+          <t>80,34; 82,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,65; 81,89</t>
+          <t>79,65; 81,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,81</t>
+          <t>80,08; 81,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>80,06; 81,66</t>
+          <t>80,2; 81,77</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>80,62; 82,24</t>
+          <t>80,69; 82,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>84,0; 85,33</t>
+          <t>84,02; 85,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,73; 86,85</t>
+          <t>85,65; 86,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,98; 83,07</t>
+          <t>81,95; 83,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>81,7; 83,09</t>
+          <t>81,67; 83,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>84,08; 85,29</t>
+          <t>84,02; 85,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,79; 81,94</t>
+          <t>80,73; 81,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>83,04; 84,02</t>
+          <t>83,01; 83,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>85,05; 85,87</t>
+          <t>85,04; 85,86</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,33</t>
+          <t>81,53; 82,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
